--- a/DatosDeTiendaCerca.xlsx
+++ b/DatosDeTiendaCerca.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Desktop\Proyectos Python\ScraperTiendaCerca\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690286D4-7E51-4EB6-BBD0-ECB571D6141D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +46,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -335,15 +317,806 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>958763</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TIEDA EL SHADDAY              </t>
+        </is>
+      </c>
+      <c r="E1" t="n">
+        <v>13.94374444</v>
+      </c>
+      <c r="F1" t="n">
+        <v>-89.19100278000001</v>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>CARRET.TRONC.DEL NTE KM.32 , C.VIEJA AGUILARES</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>79443295</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>1712338</t>
+        </is>
+      </c>
+      <c r="M1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>958765</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TIENDA JANETH                 </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>13.94378889</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-89.19091666999999</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CARRET.TRONCAL DEL NTE. , A UN COSTADO DE TANQUE DE ANDA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>74851629</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1108859</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>958764</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TIENDA DINA                   </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13.94415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-89.18941389</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CARRET.TCAL.DEL NTE. , ENTRADA DEL PJE.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>60269919</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1111571</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>898041</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TIENDA BENDICION DE DIOS      </t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>13.95015278</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-89.18991944</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C.A LA CANCHA ,</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>74768928</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1111651</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>960657</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TDA.EL ALMENDRO               </t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>13.95351111</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-89.19221944</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C.PPAL ,</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>75773698</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1117963</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>898052</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TIENDA MEYBEL                 </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>13.95378056</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-89.18389722000001</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>72412562</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1105226</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>854388</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TDA.MILAGRO                   </t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>13.9561</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-89.19363889</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C.PPAL , FTE.AL PARQUEO</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>21243380</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1117994</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>854740</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TIENDA LA HEREDAD DE JACOB    </t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>13.95630833</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-89.19005278</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>AV.FERROCARRIL ,</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>23215083</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>330069</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>960057</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUPER TDA.MIRIAN              </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>13.95648889</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-89.19113056</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2 CALLE PTE. ,</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>78520955</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1118021</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>854372</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TIENDA MATEO                  </t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>13.95651667</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-89.19115832999999</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>, 25MT.DESP.GRUPO AA.AA 23 DE AG</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>77452483</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>4112313</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>961240</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TDA.MERARI                    </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13.95665</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-89.19646944</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>77108833</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1118025</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>960790</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TIENDA HENRY                  </t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>13.95717222</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-89.19338888999999</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>, PJE POR ENTRADA DEL CHALET EL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>75425602</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>4027567</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>980716</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TIENDA REYNITA                </t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>13.95831111</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-89.19604722</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>, CTGO.A IGLESIA SINAI</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>61501268</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>4027726</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>959008</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TIENDA YOSETHI                </t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>13.96019444</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-89.18942222</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>7 AV.NTE Y CALLE A LA PLANADA , 150MT.DE PNC.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>72427532</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1108908</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>847260</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">V/G JOSE ANGEL CARCAMO        </t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>13.96076389</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-89.19008056</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>74903764</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1102936</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Aguilares</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>991319</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TDA.AMANDA                    </t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>13.96103056</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-89.19386944</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C.PPAL , FTE.A PLAZA HIDALGO</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>72525403</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>+503</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1118002</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>